--- a/data/450_P_features_case.xlsx
+++ b/data/450_P_features_case.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R141"/>
+  <dimension ref="A1:R118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7078,1294 +7078,6 @@
         <v>0.79935</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>1.00141355259618</v>
-      </c>
-      <c r="B119" t="n">
-        <v>50.57638974207595</v>
-      </c>
-      <c r="C119" t="n">
-        <v>2.621264943540185e-05</v>
-      </c>
-      <c r="D119" t="n">
-        <v>-0.03640757127752082</v>
-      </c>
-      <c r="E119" t="n">
-        <v>1.069993972592032e-06</v>
-      </c>
-      <c r="F119" t="n">
-        <v>0.002022511718455744</v>
-      </c>
-      <c r="G119" t="n">
-        <v>2.426285382947723e-06</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0.0003105432721449746</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0.1024177680315169</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0.0004754313633162573</v>
-      </c>
-      <c r="K119" t="n">
-        <v>-0.001660703124968862</v>
-      </c>
-      <c r="L119" t="n">
-        <v>0.001813354910718645</v>
-      </c>
-      <c r="M119" t="n">
-        <v>-3.840495732180846e-05</v>
-      </c>
-      <c r="N119" t="n">
-        <v>1.437325121714918e-05</v>
-      </c>
-      <c r="O119" t="n">
-        <v>-1.901181304279511e-05</v>
-      </c>
-      <c r="P119" t="n">
-        <v>0.0006242848871979344</v>
-      </c>
-      <c r="Q119" t="n">
-        <v>4131.1215218138</v>
-      </c>
-      <c r="R119" t="n">
-        <v>0.80819</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>1.00142731593579</v>
-      </c>
-      <c r="B120" t="n">
-        <v>50.63833341429269</v>
-      </c>
-      <c r="C120" t="n">
-        <v>3.496787672817125e-05</v>
-      </c>
-      <c r="D120" t="n">
-        <v>-0.03521870512555862</v>
-      </c>
-      <c r="E120" t="n">
-        <v>1.039732937721505e-06</v>
-      </c>
-      <c r="F120" t="n">
-        <v>0.001943121443144112</v>
-      </c>
-      <c r="G120" t="n">
-        <v>2.333137123127971e-06</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0.000307030513977776</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0.09842590305802168</v>
-      </c>
-      <c r="J120" t="n">
-        <v>0.0004674336773402235</v>
-      </c>
-      <c r="K120" t="n">
-        <v>-0.001608559641076037</v>
-      </c>
-      <c r="L120" t="n">
-        <v>0.001827257764041653</v>
-      </c>
-      <c r="M120" t="n">
-        <v>-3.995162096276741e-05</v>
-      </c>
-      <c r="N120" t="n">
-        <v>2.253047452583538e-05</v>
-      </c>
-      <c r="O120" t="n">
-        <v>5.075854734808283e-06</v>
-      </c>
-      <c r="P120" t="n">
-        <v>0.0006148371456278504</v>
-      </c>
-      <c r="Q120" t="n">
-        <v>4134.074759619076</v>
-      </c>
-      <c r="R120" t="n">
-        <v>0.81702</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>1.001448824096493</v>
-      </c>
-      <c r="B121" t="n">
-        <v>50.69790662147888</v>
-      </c>
-      <c r="C121" t="n">
-        <v>4.414095760532201e-05</v>
-      </c>
-      <c r="D121" t="n">
-        <v>-0.03392925468777215</v>
-      </c>
-      <c r="E121" t="n">
-        <v>1.024336571962044e-06</v>
-      </c>
-      <c r="F121" t="n">
-        <v>0.001874546698166084</v>
-      </c>
-      <c r="G121" t="n">
-        <v>2.093325200357593e-06</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0.000300136397703563</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0.09497752553956297</v>
-      </c>
-      <c r="J121" t="n">
-        <v>0.0004491012853792384</v>
-      </c>
-      <c r="K121" t="n">
-        <v>-0.001554070424177204</v>
-      </c>
-      <c r="L121" t="n">
-        <v>0.00184627169132371</v>
-      </c>
-      <c r="M121" t="n">
-        <v>-4.095175176904289e-05</v>
-      </c>
-      <c r="N121" t="n">
-        <v>2.93146331366625e-05</v>
-      </c>
-      <c r="O121" t="n">
-        <v>2.081851164156927e-05</v>
-      </c>
-      <c r="P121" t="n">
-        <v>0.0006022047229954837</v>
-      </c>
-      <c r="Q121" t="n">
-        <v>4136.896779389294</v>
-      </c>
-      <c r="R121" t="n">
-        <v>0.82586</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>1.001469493767375</v>
-      </c>
-      <c r="B122" t="n">
-        <v>50.75513093618908</v>
-      </c>
-      <c r="C122" t="n">
-        <v>5.156764764682275e-05</v>
-      </c>
-      <c r="D122" t="n">
-        <v>-0.03247542564525541</v>
-      </c>
-      <c r="E122" t="n">
-        <v>1.019104234856975e-06</v>
-      </c>
-      <c r="F122" t="n">
-        <v>0.001791102099587481</v>
-      </c>
-      <c r="G122" t="n">
-        <v>1.760097140253117e-06</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0.000289215581446669</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0.09078334002182166</v>
-      </c>
-      <c r="J122" t="n">
-        <v>0.0004225654012270949</v>
-      </c>
-      <c r="K122" t="n">
-        <v>-0.001497824932305523</v>
-      </c>
-      <c r="L122" t="n">
-        <v>0.001856601780701656</v>
-      </c>
-      <c r="M122" t="n">
-        <v>-4.260296497639101e-05</v>
-      </c>
-      <c r="N122" t="n">
-        <v>3.429895702341718e-05</v>
-      </c>
-      <c r="O122" t="n">
-        <v>2.784584702694203e-05</v>
-      </c>
-      <c r="P122" t="n">
-        <v>0.0005868404092257732</v>
-      </c>
-      <c r="Q122" t="n">
-        <v>4139.611103809458</v>
-      </c>
-      <c r="R122" t="n">
-        <v>0.8347</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>1.001483329409919</v>
-      </c>
-      <c r="B123" t="n">
-        <v>50.80997216866449</v>
-      </c>
-      <c r="C123" t="n">
-        <v>5.537631978179595e-05</v>
-      </c>
-      <c r="D123" t="n">
-        <v>-0.03072365394838707</v>
-      </c>
-      <c r="E123" t="n">
-        <v>1.043506470447247e-06</v>
-      </c>
-      <c r="F123" t="n">
-        <v>0.001705477065324859</v>
-      </c>
-      <c r="G123" t="n">
-        <v>1.390247575637838e-06</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0.0002814473671855681</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0.08649379626702638</v>
-      </c>
-      <c r="J123" t="n">
-        <v>0.000391493636112481</v>
-      </c>
-      <c r="K123" t="n">
-        <v>-0.001438989002667922</v>
-      </c>
-      <c r="L123" t="n">
-        <v>0.001922144709855681</v>
-      </c>
-      <c r="M123" t="n">
-        <v>-4.617837793639303e-05</v>
-      </c>
-      <c r="N123" t="n">
-        <v>3.797358948039974e-05</v>
-      </c>
-      <c r="O123" t="n">
-        <v>3.147569800200717e-05</v>
-      </c>
-      <c r="P123" t="n">
-        <v>0.0005763217848077401</v>
-      </c>
-      <c r="Q123" t="n">
-        <v>4142.229746247775</v>
-      </c>
-      <c r="R123" t="n">
-        <v>0.84354</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>1.001494972423998</v>
-      </c>
-      <c r="B124" t="n">
-        <v>50.86271032617901</v>
-      </c>
-      <c r="C124" t="n">
-        <v>5.486978798239385e-05</v>
-      </c>
-      <c r="D124" t="n">
-        <v>-0.02848524372566161</v>
-      </c>
-      <c r="E124" t="n">
-        <v>9.894000056845802e-07</v>
-      </c>
-      <c r="F124" t="n">
-        <v>0.001612200386288225</v>
-      </c>
-      <c r="G124" t="n">
-        <v>8.612846114249882e-07</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0.0002627803418786245</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0.08180000665735011</v>
-      </c>
-      <c r="J124" t="n">
-        <v>0.0003507225648590311</v>
-      </c>
-      <c r="K124" t="n">
-        <v>-0.001377511797665132</v>
-      </c>
-      <c r="L124" t="n">
-        <v>0.001878415372576824</v>
-      </c>
-      <c r="M124" t="n">
-        <v>-5.313249561901773e-05</v>
-      </c>
-      <c r="N124" t="n">
-        <v>4.10129693934712e-05</v>
-      </c>
-      <c r="O124" t="n">
-        <v>2.064737889007836e-05</v>
-      </c>
-      <c r="P124" t="n">
-        <v>0.0005590326351256427</v>
-      </c>
-      <c r="Q124" t="n">
-        <v>4144.755226759355</v>
-      </c>
-      <c r="R124" t="n">
-        <v>0.8524299999999999</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>1.001504779840373</v>
-      </c>
-      <c r="B125" t="n">
-        <v>50.91278589239629</v>
-      </c>
-      <c r="C125" t="n">
-        <v>5.246377125780876e-05</v>
-      </c>
-      <c r="D125" t="n">
-        <v>-0.02567366393176434</v>
-      </c>
-      <c r="E125" t="n">
-        <v>9.660668534250184e-07</v>
-      </c>
-      <c r="F125" t="n">
-        <v>0.001503563359115775</v>
-      </c>
-      <c r="G125" t="n">
-        <v>5.361288393417802e-08</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0.0002502788173733298</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0.076334454371307</v>
-      </c>
-      <c r="J125" t="n">
-        <v>0.0002951750409087626</v>
-      </c>
-      <c r="K125" t="n">
-        <v>-0.001313180686921763</v>
-      </c>
-      <c r="L125" t="n">
-        <v>0.001889270367576027</v>
-      </c>
-      <c r="M125" t="n">
-        <v>-6.22046660510922e-05</v>
-      </c>
-      <c r="N125" t="n">
-        <v>4.372734699874825e-05</v>
-      </c>
-      <c r="O125" t="n">
-        <v>1.78775397306669e-05</v>
-      </c>
-      <c r="P125" t="n">
-        <v>0.0005479148850204436</v>
-      </c>
-      <c r="Q125" t="n">
-        <v>4147.158639187767</v>
-      </c>
-      <c r="R125" t="n">
-        <v>0.8613299999999999</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>1.001519910770335</v>
-      </c>
-      <c r="B126" t="n">
-        <v>50.9600245680507</v>
-      </c>
-      <c r="C126" t="n">
-        <v>4.936239822661661e-05</v>
-      </c>
-      <c r="D126" t="n">
-        <v>-0.02236386808691547</v>
-      </c>
-      <c r="E126" t="n">
-        <v>9.341907447799524e-07</v>
-      </c>
-      <c r="F126" t="n">
-        <v>0.00139920762223238</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-1.012782386503339e-06</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0.0002376735995450732</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0.07108052390812607</v>
-      </c>
-      <c r="J126" t="n">
-        <v>0.0002265804391495217</v>
-      </c>
-      <c r="K126" t="n">
-        <v>-0.001245880188972215</v>
-      </c>
-      <c r="L126" t="n">
-        <v>0.001906562300329131</v>
-      </c>
-      <c r="M126" t="n">
-        <v>-7.245755267432356e-05</v>
-      </c>
-      <c r="N126" t="n">
-        <v>4.574085298610987e-05</v>
-      </c>
-      <c r="O126" t="n">
-        <v>1.751662571035607e-05</v>
-      </c>
-      <c r="P126" t="n">
-        <v>0.0005363214516711991</v>
-      </c>
-      <c r="Q126" t="n">
-        <v>4149.412834924829</v>
-      </c>
-      <c r="R126" t="n">
-        <v>0.8702299999999999</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>1.001533863554838</v>
-      </c>
-      <c r="B127" t="n">
-        <v>51.00427505256131</v>
-      </c>
-      <c r="C127" t="n">
-        <v>4.591476933869932e-05</v>
-      </c>
-      <c r="D127" t="n">
-        <v>-0.01873067439235644</v>
-      </c>
-      <c r="E127" t="n">
-        <v>9.074236620947671e-07</v>
-      </c>
-      <c r="F127" t="n">
-        <v>0.001280400353607838</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-2.080604125197291e-06</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0.0002258908668899712</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0.06507862471580836</v>
-      </c>
-      <c r="J127" t="n">
-        <v>0.0001580986896646664</v>
-      </c>
-      <c r="K127" t="n">
-        <v>-0.001174784151642279</v>
-      </c>
-      <c r="L127" t="n">
-        <v>0.001918478172701253</v>
-      </c>
-      <c r="M127" t="n">
-        <v>-8.26272603136708e-05</v>
-      </c>
-      <c r="N127" t="n">
-        <v>4.70271233171508e-05</v>
-      </c>
-      <c r="O127" t="n">
-        <v>1.975508970789677e-05</v>
-      </c>
-      <c r="P127" t="n">
-        <v>0.0005241949385145801</v>
-      </c>
-      <c r="Q127" t="n">
-        <v>4151.527099396052</v>
-      </c>
-      <c r="R127" t="n">
-        <v>0.87913</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>1.001544506098108</v>
-      </c>
-      <c r="B128" t="n">
-        <v>51.04539740145377</v>
-      </c>
-      <c r="C128" t="n">
-        <v>4.148943908867182e-05</v>
-      </c>
-      <c r="D128" t="n">
-        <v>-0.01504878707747935</v>
-      </c>
-      <c r="E128" t="n">
-        <v>9.512364618352501e-07</v>
-      </c>
-      <c r="F128" t="n">
-        <v>0.001166431301523864</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-2.662052132976301e-06</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0.0002228662631085519</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0.05930875772697906</v>
-      </c>
-      <c r="J128" t="n">
-        <v>0.0001139693678951627</v>
-      </c>
-      <c r="K128" t="n">
-        <v>-0.001098504859350743</v>
-      </c>
-      <c r="L128" t="n">
-        <v>0.001975856145753308</v>
-      </c>
-      <c r="M128" t="n">
-        <v>-9.122284287636136e-05</v>
-      </c>
-      <c r="N128" t="n">
-        <v>4.794462834029384e-05</v>
-      </c>
-      <c r="O128" t="n">
-        <v>3.053964010358438e-05</v>
-      </c>
-      <c r="P128" t="n">
-        <v>0.0005179878030569522</v>
-      </c>
-      <c r="Q128" t="n">
-        <v>4153.495632333117</v>
-      </c>
-      <c r="R128" t="n">
-        <v>0.88802</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>1.001553989552507</v>
-      </c>
-      <c r="B129" t="n">
-        <v>51.08350481770445</v>
-      </c>
-      <c r="C129" t="n">
-        <v>3.694043680063635e-05</v>
-      </c>
-      <c r="D129" t="n">
-        <v>-0.01155374757445458</v>
-      </c>
-      <c r="E129" t="n">
-        <v>9.206152333258564e-07</v>
-      </c>
-      <c r="F129" t="n">
-        <v>0.0010520250297336</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-2.733046830589187e-06</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0.0002121916015908824</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0.05350058511155017</v>
-      </c>
-      <c r="J129" t="n">
-        <v>9.544857649880678e-05</v>
-      </c>
-      <c r="K129" t="n">
-        <v>-0.001017367300187134</v>
-      </c>
-      <c r="L129" t="n">
-        <v>0.001942451096729616</v>
-      </c>
-      <c r="M129" t="n">
-        <v>-9.761328388391363e-05</v>
-      </c>
-      <c r="N129" t="n">
-        <v>4.768456214428203e-05</v>
-      </c>
-      <c r="O129" t="n">
-        <v>4.97652158824383e-05</v>
-      </c>
-      <c r="P129" t="n">
-        <v>0.0005075773249293163</v>
-      </c>
-      <c r="Q129" t="n">
-        <v>4155.323391328376</v>
-      </c>
-      <c r="R129" t="n">
-        <v>0.8969600000000001</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>1.001564562595283</v>
-      </c>
-      <c r="B130" t="n">
-        <v>51.11834610622864</v>
-      </c>
-      <c r="C130" t="n">
-        <v>3.317870005081726e-05</v>
-      </c>
-      <c r="D130" t="n">
-        <v>-0.008490040850908364</v>
-      </c>
-      <c r="E130" t="n">
-        <v>9.040157373139179e-07</v>
-      </c>
-      <c r="F130" t="n">
-        <v>0.0009361226643129204</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-2.424078390873016e-06</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0.0002075125018688408</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0.04761571726847159</v>
-      </c>
-      <c r="J130" t="n">
-        <v>9.649672636422751e-05</v>
-      </c>
-      <c r="K130" t="n">
-        <v>-0.000931745492028667</v>
-      </c>
-      <c r="L130" t="n">
-        <v>0.001955595422003756</v>
-      </c>
-      <c r="M130" t="n">
-        <v>-0.0001024632234021862</v>
-      </c>
-      <c r="N130" t="n">
-        <v>4.776530717606487e-05</v>
-      </c>
-      <c r="O130" t="n">
-        <v>7.235554547143317e-05</v>
-      </c>
-      <c r="P130" t="n">
-        <v>0.0005032679014934659</v>
-      </c>
-      <c r="Q130" t="n">
-        <v>4156.990026986779</v>
-      </c>
-      <c r="R130" t="n">
-        <v>0.9059</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>1.00157271272916</v>
-      </c>
-      <c r="B131" t="n">
-        <v>51.14989837554607</v>
-      </c>
-      <c r="C131" t="n">
-        <v>2.61039655988571e-05</v>
-      </c>
-      <c r="D131" t="n">
-        <v>-0.006067112151568726</v>
-      </c>
-      <c r="E131" t="n">
-        <v>7.826166266954915e-07</v>
-      </c>
-      <c r="F131" t="n">
-        <v>0.0008331085730704629</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-9.963420918425024e-07</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0.0001218481454775837</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0.04237948934869711</v>
-      </c>
-      <c r="J131" t="n">
-        <v>0.0001625542727247395</v>
-      </c>
-      <c r="K131" t="n">
-        <v>-0.0008425138854749332</v>
-      </c>
-      <c r="L131" t="n">
-        <v>0.001967418799162791</v>
-      </c>
-      <c r="M131" t="n">
-        <v>-0.0001066304786241625</v>
-      </c>
-      <c r="N131" t="n">
-        <v>4.873042409113693e-05</v>
-      </c>
-      <c r="O131" t="n">
-        <v>8.941675378960249e-05</v>
-      </c>
-      <c r="P131" t="n">
-        <v>0.0004769290884069894</v>
-      </c>
-      <c r="Q131" t="n">
-        <v>4158.504108744329</v>
-      </c>
-      <c r="R131" t="n">
-        <v>0.91484</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>1.001571877522195</v>
-      </c>
-      <c r="B132" t="n">
-        <v>51.14995129360595</v>
-      </c>
-      <c r="C132" t="n">
-        <v>4.141777322941843e-05</v>
-      </c>
-      <c r="D132" t="n">
-        <v>-0.006027492103819164</v>
-      </c>
-      <c r="E132" t="n">
-        <v>1.245698305463075e-06</v>
-      </c>
-      <c r="F132" t="n">
-        <v>0.0008327159911188458</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-4.737159206971353e-06</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0.0004829352949940028</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0.04236723731311653</v>
-      </c>
-      <c r="J132" t="n">
-        <v>-5.384904997029395e-05</v>
-      </c>
-      <c r="K132" t="n">
-        <v>-0.0008388000096944779</v>
-      </c>
-      <c r="L132" t="n">
-        <v>0.001978320205306699</v>
-      </c>
-      <c r="M132" t="n">
-        <v>-0.0001047816750240169</v>
-      </c>
-      <c r="N132" t="n">
-        <v>4.626943953213276e-05</v>
-      </c>
-      <c r="O132" t="n">
-        <v>8.873924016231727e-05</v>
-      </c>
-      <c r="P132" t="n">
-        <v>0.000569182313991178</v>
-      </c>
-      <c r="Q132" t="n">
-        <v>4158.509105651542</v>
-      </c>
-      <c r="R132" t="n">
-        <v>0.9148500000000001</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>1.001581210205363</v>
-      </c>
-      <c r="B133" t="n">
-        <v>51.17812384165845</v>
-      </c>
-      <c r="C133" t="n">
-        <v>2.718649561138039e-05</v>
-      </c>
-      <c r="D133" t="n">
-        <v>-0.004412171242372632</v>
-      </c>
-      <c r="E133" t="n">
-        <v>8.737668783399584e-07</v>
-      </c>
-      <c r="F133" t="n">
-        <v>0.0007189956526157475</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-1.043012631162003e-06</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0.0001958786590329778</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0.03656548789450317</v>
-      </c>
-      <c r="J133" t="n">
-        <v>0.0001452416439893285</v>
-      </c>
-      <c r="K133" t="n">
-        <v>-0.00074723979288995</v>
-      </c>
-      <c r="L133" t="n">
-        <v>0.00197809350699738</v>
-      </c>
-      <c r="M133" t="n">
-        <v>-0.0001091063756618614</v>
-      </c>
-      <c r="N133" t="n">
-        <v>4.841551201663404e-05</v>
-      </c>
-      <c r="O133" t="n">
-        <v>9.63821249140579e-05</v>
-      </c>
-      <c r="P133" t="n">
-        <v>0.0004891177851567934</v>
-      </c>
-      <c r="Q133" t="n">
-        <v>4159.857459470511</v>
-      </c>
-      <c r="R133" t="n">
-        <v>0.92379</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>1.001586809478971</v>
-      </c>
-      <c r="B134" t="n">
-        <v>51.20285180265348</v>
-      </c>
-      <c r="C134" t="n">
-        <v>2.942749385244498e-05</v>
-      </c>
-      <c r="D134" t="n">
-        <v>-0.003658123820378342</v>
-      </c>
-      <c r="E134" t="n">
-        <v>8.993255660253787e-07</v>
-      </c>
-      <c r="F134" t="n">
-        <v>0.0006081619832631166</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-1.923228160417204e-07</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0.0001954876018186927</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0.03089997110587263</v>
-      </c>
-      <c r="J134" t="n">
-        <v>0.0001823987090794049</v>
-      </c>
-      <c r="K134" t="n">
-        <v>-0.0006485315268115215</v>
-      </c>
-      <c r="L134" t="n">
-        <v>0.002029579054600235</v>
-      </c>
-      <c r="M134" t="n">
-        <v>-0.0001111553166040082</v>
-      </c>
-      <c r="N134" t="n">
-        <v>4.750826859426139e-05</v>
-      </c>
-      <c r="O134" t="n">
-        <v>9.333560215080517e-05</v>
-      </c>
-      <c r="P134" t="n">
-        <v>0.0004841775489334243</v>
-      </c>
-      <c r="Q134" t="n">
-        <v>4161.047007513271</v>
-      </c>
-      <c r="R134" t="n">
-        <v>0.9327299999999999</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>1.001590017711416</v>
-      </c>
-      <c r="B135" t="n">
-        <v>51.22409067696969</v>
-      </c>
-      <c r="C135" t="n">
-        <v>3.991717004784139e-05</v>
-      </c>
-      <c r="D135" t="n">
-        <v>-0.003842411351701142</v>
-      </c>
-      <c r="E135" t="n">
-        <v>8.417414484666846e-07</v>
-      </c>
-      <c r="F135" t="n">
-        <v>0.0004904080772917003</v>
-      </c>
-      <c r="G135" t="n">
-        <v>4.007134324511256e-07</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0.0001874064660917357</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0.02487455715240141</v>
-      </c>
-      <c r="J135" t="n">
-        <v>0.0002083767310096753</v>
-      </c>
-      <c r="K135" t="n">
-        <v>-0.0005454255413222344</v>
-      </c>
-      <c r="L135" t="n">
-        <v>0.001992655777944679</v>
-      </c>
-      <c r="M135" t="n">
-        <v>-0.0001119060660687307</v>
-      </c>
-      <c r="N135" t="n">
-        <v>4.544272986441114e-05</v>
-      </c>
-      <c r="O135" t="n">
-        <v>7.578348019199076e-05</v>
-      </c>
-      <c r="P135" t="n">
-        <v>0.0004748374469002468</v>
-      </c>
-      <c r="Q135" t="n">
-        <v>4162.074926637581</v>
-      </c>
-      <c r="R135" t="n">
-        <v>0.9416899999999999</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>1.001592152049144</v>
-      </c>
-      <c r="B136" t="n">
-        <v>51.24172495117527</v>
-      </c>
-      <c r="C136" t="n">
-        <v>5.509444066364282e-05</v>
-      </c>
-      <c r="D136" t="n">
-        <v>-0.004949428450196794</v>
-      </c>
-      <c r="E136" t="n">
-        <v>8.295826514679174e-07</v>
-      </c>
-      <c r="F136" t="n">
-        <v>0.0003686492340503957</v>
-      </c>
-      <c r="G136" t="n">
-        <v>6.694226482243738e-07</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0.0001883973321096451</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0.01864802555969388</v>
-      </c>
-      <c r="J136" t="n">
-        <v>0.0002177746225404547</v>
-      </c>
-      <c r="K136" t="n">
-        <v>-0.0004395781346822046</v>
-      </c>
-      <c r="L136" t="n">
-        <v>0.00199938393778834</v>
-      </c>
-      <c r="M136" t="n">
-        <v>-0.0001111929874665239</v>
-      </c>
-      <c r="N136" t="n">
-        <v>4.291837937433115e-05</v>
-      </c>
-      <c r="O136" t="n">
-        <v>5.117822802700181e-05</v>
-      </c>
-      <c r="P136" t="n">
-        <v>0.0004724224497661009</v>
-      </c>
-      <c r="Q136" t="n">
-        <v>4162.927267805091</v>
-      </c>
-      <c r="R136" t="n">
-        <v>0.9506600000000001</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>1.001593265178011</v>
-      </c>
-      <c r="B137" t="n">
-        <v>51.25586578557976</v>
-      </c>
-      <c r="C137" t="n">
-        <v>6.847850373969949e-05</v>
-      </c>
-      <c r="D137" t="n">
-        <v>-0.006850229355550449</v>
-      </c>
-      <c r="E137" t="n">
-        <v>8.325478216114028e-07</v>
-      </c>
-      <c r="F137" t="n">
-        <v>0.0002615015982676106</v>
-      </c>
-      <c r="G137" t="n">
-        <v>7.163254107524006e-07</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0.0001909958929854422</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0.013172579552019</v>
-      </c>
-      <c r="J137" t="n">
-        <v>0.0002156613629367445</v>
-      </c>
-      <c r="K137" t="n">
-        <v>-0.0003330794487177657</v>
-      </c>
-      <c r="L137" t="n">
-        <v>0.002006048714178599</v>
-      </c>
-      <c r="M137" t="n">
-        <v>-0.0001091126675888467</v>
-      </c>
-      <c r="N137" t="n">
-        <v>4.022913592835532e-05</v>
-      </c>
-      <c r="O137" t="n">
-        <v>2.329123013827236e-05</v>
-      </c>
-      <c r="P137" t="n">
-        <v>0.0004717192066700047</v>
-      </c>
-      <c r="Q137" t="n">
-        <v>4163.612088333816</v>
-      </c>
-      <c r="R137" t="n">
-        <v>0.9596299999999999</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>1.001593843601471</v>
-      </c>
-      <c r="B138" t="n">
-        <v>51.26664821416116</v>
-      </c>
-      <c r="C138" t="n">
-        <v>7.543703709806768e-05</v>
-      </c>
-      <c r="D138" t="n">
-        <v>-0.009382773636152463</v>
-      </c>
-      <c r="E138" t="n">
-        <v>8.420024996501441e-07</v>
-      </c>
-      <c r="F138" t="n">
-        <v>0.0001497382397885896</v>
-      </c>
-      <c r="G138" t="n">
-        <v>6.559970518843634e-07</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0.000193966689947613</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0.007459219836891185</v>
-      </c>
-      <c r="J138" t="n">
-        <v>0.0002081084713154776</v>
-      </c>
-      <c r="K138" t="n">
-        <v>-0.0002271808272245451</v>
-      </c>
-      <c r="L138" t="n">
-        <v>0.002006991291015256</v>
-      </c>
-      <c r="M138" t="n">
-        <v>-0.0001056797704560739</v>
-      </c>
-      <c r="N138" t="n">
-        <v>3.743653268982477e-05</v>
-      </c>
-      <c r="O138" t="n">
-        <v>-2.034502330664168e-06</v>
-      </c>
-      <c r="P138" t="n">
-        <v>0.0004720608159715601</v>
-      </c>
-      <c r="Q138" t="n">
-        <v>4164.135218767204</v>
-      </c>
-      <c r="R138" t="n">
-        <v>0.96859</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>1.001594907967895</v>
-      </c>
-      <c r="B139" t="n">
-        <v>51.27421734410965</v>
-      </c>
-      <c r="C139" t="n">
-        <v>7.331398740359623e-05</v>
-      </c>
-      <c r="D139" t="n">
-        <v>-0.01235192095705791</v>
-      </c>
-      <c r="E139" t="n">
-        <v>8.724344911995003e-07</v>
-      </c>
-      <c r="F139" t="n">
-        <v>5.087099181490057e-05</v>
-      </c>
-      <c r="G139" t="n">
-        <v>6.344824586948469e-07</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0.0002025885759298588</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0.002398332610019187</v>
-      </c>
-      <c r="J139" t="n">
-        <v>0.0002031094293834821</v>
-      </c>
-      <c r="K139" t="n">
-        <v>-0.0001224170964148463</v>
-      </c>
-      <c r="L139" t="n">
-        <v>0.002049701593809474</v>
-      </c>
-      <c r="M139" t="n">
-        <v>-0.0001008512104852028</v>
-      </c>
-      <c r="N139" t="n">
-        <v>3.444997455097418e-05</v>
-      </c>
-      <c r="O139" t="n">
-        <v>-1.750558094311111e-05</v>
-      </c>
-      <c r="P139" t="n">
-        <v>0.0004776602654409806</v>
-      </c>
-      <c r="Q139" t="n">
-        <v>4164.498918720378</v>
-      </c>
-      <c r="R139" t="n">
-        <v>0.97756</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>1.00159555533136</v>
-      </c>
-      <c r="B140" t="n">
-        <v>51.27870001693918</v>
-      </c>
-      <c r="C140" t="n">
-        <v>6.379019955048827e-05</v>
-      </c>
-      <c r="D140" t="n">
-        <v>-0.01564141097098479</v>
-      </c>
-      <c r="E140" t="n">
-        <v>8.14445368193727e-07</v>
-      </c>
-      <c r="F140" t="n">
-        <v>-4.357321696634607e-05</v>
-      </c>
-      <c r="G140" t="n">
-        <v>4.032492942942342e-07</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0.0002018180040640102</v>
-      </c>
-      <c r="I140" t="n">
-        <v>-0.002434132526301839</v>
-      </c>
-      <c r="J140" t="n">
-        <v>0.0001885099428451856</v>
-      </c>
-      <c r="K140" t="n">
-        <v>-1.865785892185554e-05</v>
-      </c>
-      <c r="L140" t="n">
-        <v>0.001999814601082115</v>
-      </c>
-      <c r="M140" t="n">
-        <v>-9.428420152023546e-05</v>
-      </c>
-      <c r="N140" t="n">
-        <v>3.113729489764807e-05</v>
-      </c>
-      <c r="O140" t="n">
-        <v>-2.815718371633336e-05</v>
-      </c>
-      <c r="P140" t="n">
-        <v>0.0004773474382251654</v>
-      </c>
-      <c r="Q140" t="n">
-        <v>4164.716135859162</v>
-      </c>
-      <c r="R140" t="n">
-        <v>0.98654</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>1.001595433145009</v>
-      </c>
-      <c r="B141" t="n">
-        <v>51.28013391300232</v>
-      </c>
-      <c r="C141" t="n">
-        <v>5.491810533310437e-05</v>
-      </c>
-      <c r="D141" t="n">
-        <v>-0.01921236038225396</v>
-      </c>
-      <c r="E141" t="n">
-        <v>8.070992302731819e-07</v>
-      </c>
-      <c r="F141" t="n">
-        <v>-0.000142063909569793</v>
-      </c>
-      <c r="G141" t="n">
-        <v>1.318053154649806e-07</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0.0002064895660295165</v>
-      </c>
-      <c r="I141" t="n">
-        <v>-0.007474058756250561</v>
-      </c>
-      <c r="J141" t="n">
-        <v>0.0001711568388293526</v>
-      </c>
-      <c r="K141" t="n">
-        <v>8.348204251365348e-05</v>
-      </c>
-      <c r="L141" t="n">
-        <v>0.001993855754466465</v>
-      </c>
-      <c r="M141" t="n">
-        <v>-8.550080304480976e-05</v>
-      </c>
-      <c r="N141" t="n">
-        <v>2.756674430380808e-05</v>
-      </c>
-      <c r="O141" t="n">
-        <v>-3.537687137856346e-05</v>
-      </c>
-      <c r="P141" t="n">
-        <v>0.0004811685435469938</v>
-      </c>
-      <c r="Q141" t="n">
-        <v>4164.784762915391</v>
-      </c>
-      <c r="R141" t="n">
-        <v>0.99551</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
